--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.09104053155563</v>
+        <v>3.143381999999999</v>
       </c>
       <c r="H2">
-        <v>3.09104053155563</v>
+        <v>9.430145999999999</v>
       </c>
       <c r="I2">
-        <v>0.4103681717121713</v>
+        <v>0.3901511487518624</v>
       </c>
       <c r="J2">
-        <v>0.4103681717121713</v>
+        <v>0.3901511487518625</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.95732916934272</v>
+        <v>1.977152666666667</v>
       </c>
       <c r="N2">
-        <v>1.95732916934272</v>
+        <v>5.931458</v>
       </c>
       <c r="O2">
-        <v>0.5711043789603084</v>
+        <v>0.5296093122610759</v>
       </c>
       <c r="P2">
-        <v>0.5711043789603084</v>
+        <v>0.5296093122610759</v>
       </c>
       <c r="Q2">
-        <v>6.050183796034461</v>
+        <v>6.214946103651999</v>
       </c>
       <c r="R2">
-        <v>6.050183796034461</v>
+        <v>55.93451493286799</v>
       </c>
       <c r="S2">
-        <v>0.2343630598507568</v>
+        <v>0.2066276815683426</v>
       </c>
       <c r="T2">
-        <v>0.2343630598507568</v>
+        <v>0.2066276815683426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,57 +596,57 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.09104053155563</v>
+        <v>3.143381999999999</v>
       </c>
       <c r="H3">
-        <v>3.09104053155563</v>
+        <v>9.430145999999999</v>
       </c>
       <c r="I3">
-        <v>0.4103681717121713</v>
+        <v>0.3901511487518624</v>
       </c>
       <c r="J3">
-        <v>0.4103681717121713</v>
+        <v>0.3901511487518625</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.46994129373099</v>
+        <v>1.561521333333333</v>
       </c>
       <c r="N3">
-        <v>1.46994129373099</v>
+        <v>4.684564</v>
       </c>
       <c r="O3">
-        <v>0.4288956210396915</v>
+        <v>0.4182763695339315</v>
       </c>
       <c r="P3">
-        <v>0.4288956210396915</v>
+        <v>0.4182763695339315</v>
       </c>
       <c r="Q3">
-        <v>4.54364811792981</v>
+        <v>4.908458051815999</v>
       </c>
       <c r="R3">
-        <v>4.54364811792981</v>
+        <v>44.17612246634399</v>
       </c>
       <c r="S3">
-        <v>0.1760051118614145</v>
+        <v>0.1631910060694219</v>
       </c>
       <c r="T3">
-        <v>0.1760051118614145</v>
+        <v>0.1631910060694219</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -652,60 +655,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.44131880971331</v>
+        <v>3.143381999999999</v>
       </c>
       <c r="H4">
-        <v>4.44131880971331</v>
+        <v>9.430145999999999</v>
       </c>
       <c r="I4">
-        <v>0.5896318282878287</v>
+        <v>0.3901511487518624</v>
       </c>
       <c r="J4">
-        <v>0.5896318282878287</v>
+        <v>0.3901511487518625</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.95732916934272</v>
+        <v>0.04091566666666666</v>
       </c>
       <c r="N4">
-        <v>1.95732916934272</v>
+        <v>0.122747</v>
       </c>
       <c r="O4">
-        <v>0.5711043789603084</v>
+        <v>0.01095986083895566</v>
       </c>
       <c r="P4">
-        <v>0.5711043789603084</v>
+        <v>0.01095986083895566</v>
       </c>
       <c r="Q4">
-        <v>8.693122856602351</v>
+        <v>0.128613570118</v>
       </c>
       <c r="R4">
-        <v>8.693122856602351</v>
+        <v>1.157522131062</v>
       </c>
       <c r="S4">
-        <v>0.3367413191095516</v>
+        <v>0.004276002296479102</v>
       </c>
       <c r="T4">
-        <v>0.3367413191095516</v>
+        <v>0.004276002296479103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,55 +717,427 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.143381999999999</v>
+      </c>
+      <c r="H5">
+        <v>9.430145999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.3901511487518624</v>
+      </c>
+      <c r="J5">
+        <v>0.3901511487518625</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1059233333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.31777</v>
+      </c>
+      <c r="O5">
+        <v>0.02837311688916993</v>
+      </c>
+      <c r="P5">
+        <v>0.02837311688916993</v>
+      </c>
+      <c r="Q5">
+        <v>0.3329574993799999</v>
+      </c>
+      <c r="R5">
+        <v>2.99661749442</v>
+      </c>
+      <c r="S5">
+        <v>0.01106980414798052</v>
+      </c>
+      <c r="T5">
+        <v>0.01106980414798052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.143381999999999</v>
+      </c>
+      <c r="H6">
+        <v>9.430145999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.3901511487518624</v>
+      </c>
+      <c r="J6">
+        <v>0.3901511487518625</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.04771566666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.143147</v>
+      </c>
+      <c r="O6">
+        <v>0.01278134047686694</v>
+      </c>
+      <c r="P6">
+        <v>0.01278134047686694</v>
+      </c>
+      <c r="Q6">
+        <v>0.149988567718</v>
+      </c>
+      <c r="R6">
+        <v>1.349897109462</v>
+      </c>
+      <c r="S6">
+        <v>0.004986654669638313</v>
+      </c>
+      <c r="T6">
+        <v>0.004986654669638314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.913449333333333</v>
+      </c>
+      <c r="H7">
+        <v>14.740348</v>
+      </c>
+      <c r="I7">
+        <v>0.6098488512481375</v>
+      </c>
+      <c r="J7">
+        <v>0.6098488512481376</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.977152666666667</v>
+      </c>
+      <c r="N7">
+        <v>5.931458</v>
+      </c>
+      <c r="O7">
+        <v>0.5296093122610759</v>
+      </c>
+      <c r="P7">
+        <v>0.5296093122610759</v>
+      </c>
+      <c r="Q7">
+        <v>9.714639451931555</v>
+      </c>
+      <c r="R7">
+        <v>87.431755067384</v>
+      </c>
+      <c r="S7">
+        <v>0.3229816306927333</v>
+      </c>
+      <c r="T7">
+        <v>0.3229816306927333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4.44131880971331</v>
-      </c>
-      <c r="H5">
-        <v>4.44131880971331</v>
-      </c>
-      <c r="I5">
-        <v>0.5896318282878287</v>
-      </c>
-      <c r="J5">
-        <v>0.5896318282878287</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.46994129373099</v>
-      </c>
-      <c r="N5">
-        <v>1.46994129373099</v>
-      </c>
-      <c r="O5">
-        <v>0.4288956210396915</v>
-      </c>
-      <c r="P5">
-        <v>0.4288956210396915</v>
-      </c>
-      <c r="Q5">
-        <v>6.528477917021762</v>
-      </c>
-      <c r="R5">
-        <v>6.528477917021762</v>
-      </c>
-      <c r="S5">
-        <v>0.252890509178277</v>
-      </c>
-      <c r="T5">
-        <v>0.252890509178277</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.913449333333333</v>
+      </c>
+      <c r="H8">
+        <v>14.740348</v>
+      </c>
+      <c r="I8">
+        <v>0.6098488512481375</v>
+      </c>
+      <c r="J8">
+        <v>0.6098488512481376</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.561521333333333</v>
+      </c>
+      <c r="N8">
+        <v>4.684564</v>
+      </c>
+      <c r="O8">
+        <v>0.4182763695339315</v>
+      </c>
+      <c r="P8">
+        <v>0.4182763695339315</v>
+      </c>
+      <c r="Q8">
+        <v>7.672455954252444</v>
+      </c>
+      <c r="R8">
+        <v>69.052103588272</v>
+      </c>
+      <c r="S8">
+        <v>0.2550853634645096</v>
+      </c>
+      <c r="T8">
+        <v>0.2550853634645096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.913449333333333</v>
+      </c>
+      <c r="H9">
+        <v>14.740348</v>
+      </c>
+      <c r="I9">
+        <v>0.6098488512481375</v>
+      </c>
+      <c r="J9">
+        <v>0.6098488512481376</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.04091566666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.122747</v>
+      </c>
+      <c r="O9">
+        <v>0.01095986083895566</v>
+      </c>
+      <c r="P9">
+        <v>0.01095986083895566</v>
+      </c>
+      <c r="Q9">
+        <v>0.2010370551062222</v>
+      </c>
+      <c r="R9">
+        <v>1.809333495956</v>
+      </c>
+      <c r="S9">
+        <v>0.006683858542476558</v>
+      </c>
+      <c r="T9">
+        <v>0.00668385854247656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.913449333333333</v>
+      </c>
+      <c r="H10">
+        <v>14.740348</v>
+      </c>
+      <c r="I10">
+        <v>0.6098488512481375</v>
+      </c>
+      <c r="J10">
+        <v>0.6098488512481376</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1059233333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.31777</v>
+      </c>
+      <c r="O10">
+        <v>0.02837311688916993</v>
+      </c>
+      <c r="P10">
+        <v>0.02837311688916993</v>
+      </c>
+      <c r="Q10">
+        <v>0.520448931551111</v>
+      </c>
+      <c r="R10">
+        <v>4.68404038396</v>
+      </c>
+      <c r="S10">
+        <v>0.01730331274118941</v>
+      </c>
+      <c r="T10">
+        <v>0.01730331274118941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.913449333333333</v>
+      </c>
+      <c r="H11">
+        <v>14.740348</v>
+      </c>
+      <c r="I11">
+        <v>0.6098488512481375</v>
+      </c>
+      <c r="J11">
+        <v>0.6098488512481376</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.04771566666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.143147</v>
+      </c>
+      <c r="O11">
+        <v>0.01278134047686694</v>
+      </c>
+      <c r="P11">
+        <v>0.01278134047686694</v>
+      </c>
+      <c r="Q11">
+        <v>0.2344485105728889</v>
+      </c>
+      <c r="R11">
+        <v>2.110036595156</v>
+      </c>
+      <c r="S11">
+        <v>0.007794685807228624</v>
+      </c>
+      <c r="T11">
+        <v>0.007794685807228626</v>
       </c>
     </row>
   </sheetData>
